--- a/xlsx/民族国家_intext.xlsx
+++ b/xlsx/民族国家_intext.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>民族国家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9B%BD%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_民族国家</t>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>意識型態</t>
+    <t>意识型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>政治實體</t>
+    <t>政治实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%8F</t>
   </si>
   <si>
-    <t>國族</t>
+    <t>国族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>共同體</t>
+    <t>共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>體制</t>
+    <t>体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>單一民族國家</t>
+    <t>单一民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多元文化主義</t>
+    <t>多元文化主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E9%96%80%E6%B1%9F</t>
   </si>
   <si>
-    <t>圖門江</t>
+    <t>图门江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%B0%8F%E6%9C%9D%E9%B2%9C</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E4%BA%BA%E5%8F%A3</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%B3%B0%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·泰爾</t>
+    <t>威廉·泰尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E6%95%A3</t>
   </si>
   <si>
-    <t>離散</t>
+    <t>离散</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A2%86</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A3%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>分裂主義</t>
+    <t>分裂主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>大眾文學</t>
+    <t>大众文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%AD%A6%E5%AE%B6</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>國籍法</t>
+    <t>国籍法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -833,16 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -5137,64 +5128,6 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
-      </c>
-      <c r="G137" t="n">
-        <v>23</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137</v>
-      </c>
-      <c r="E138" t="s">
-        <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>275</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" t="n">
         <v>3</v>
       </c>
     </row>
